--- a/01-examining-trends.xlsx
+++ b/01-examining-trends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/kwn5_cdc_gov/Documents/Trainings/2026_EIS-Training/ggplot2-tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="8_{1AB57379-B7DA-4E6D-8CFB-4B6B1C42F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93009574-D03B-420A-BE8B-8E77A5D47863}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="8_{1AB57379-B7DA-4E6D-8CFB-4B6B1C42F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A377C72-2834-431A-BA4B-365680F883EA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-19620" yWindow="4620" windowWidth="18900" windowHeight="10965" activeTab="1" xr2:uid="{4703C2F0-33FD-4ED4-97DB-3C2B0EE210EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4703C2F0-33FD-4ED4-97DB-3C2B0EE210EA}"/>
   </bookViews>
   <sheets>
     <sheet name="1-data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -148,7 +148,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,11 +156,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF652B5A"/>
+      <color rgb="FF847056"/>
+      <color rgb="FF890664"/>
+      <color rgb="FFF06F19"/>
+      <color rgb="FF0A58D6"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FF890664"/>
-      <color rgb="FF0A58D6"/>
-      <color rgb="FFF06F19"/>
-      <color rgb="FF847056"/>
       <color rgb="FF9B85B9"/>
       <color rgb="FF5F70A1"/>
       <color rgb="FF3C999E"/>
@@ -225,7 +225,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F06F19"/>
+                <a:srgbClr val="0A58D6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -253,10 +253,12 @@
               <c:size val="7"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="F06F19"/>
+                  <a:srgbClr val="0A58D6"/>
                 </a:solidFill>
                 <a:ln w="9525">
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:srgbClr val="0A58D6"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1336,7 +1338,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0A58D6"/>
+                <a:srgbClr val="652B5A"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1352,10 +1354,12 @@
               <c:size val="7"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0A58D6"/>
+                  <a:srgbClr val="652B5A"/>
                 </a:solidFill>
                 <a:ln w="9525">
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:srgbClr val="652B5A"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1374,10 +1378,12 @@
               <c:size val="7"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="0A58D6"/>
+                  <a:srgbClr val="652B5A"/>
                 </a:solidFill>
                 <a:ln w="9525">
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:srgbClr val="652B5A"/>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -2457,7 +2463,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="890664"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2473,10 +2481,16 @@
               <c:size val="7"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="890664"/>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:ln w="9525">
-                  <a:noFill/>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -3558,6 +3572,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Week end</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3737,7 +3800,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="F06F19"/>
+                <a:srgbClr val="0A58D6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4814,7 +4877,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0A58D6"/>
+                <a:srgbClr val="890664"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5891,7 +5954,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="890664"/>
+                <a:srgbClr val="F06F19"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -21368,15 +21431,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>327659</xdr:colOff>
+      <xdr:colOff>323849</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>27453</xdr:rowOff>
+      <xdr:rowOff>25549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
+      <xdr:colOff>97155</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -21391,10 +21454,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3375659" y="6123453"/>
-          <a:ext cx="7034718" cy="1353672"/>
+          <a:off x="3452531" y="5762961"/>
+          <a:ext cx="7088506" cy="1363981"/>
           <a:chOff x="3385184" y="6171078"/>
-          <a:chExt cx="7088506" cy="1353672"/>
+          <a:chExt cx="7088506" cy="1443568"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -21411,7 +21474,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3385184" y="6171078"/>
-            <a:ext cx="7088506" cy="1353672"/>
+            <a:ext cx="7088506" cy="1443568"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -21488,7 +21551,41 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>The percentage of ED visits with a discharge diagnosis of COVID-19 or RSV during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
+              <a:t>The percentage of ED visits with a discharge diagnosis of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>COVID-19</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> or </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="652B5A"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RSV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
@@ -21640,8 +21737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3226987" y="12765274"/>
-          <a:ext cx="7145738" cy="3892163"/>
+          <a:off x="3298144" y="12014480"/>
+          <a:ext cx="7145738" cy="3668045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21802,8 +21899,8 @@
       <xdr:rowOff>88416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>578561</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>348155</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>87210</xdr:rowOff>
     </xdr:to>
@@ -21820,8 +21917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3454661" y="13994916"/>
-          <a:ext cx="791025" cy="189294"/>
+          <a:off x="3451705" y="13994916"/>
+          <a:ext cx="1172847" cy="189294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22907,22 +23004,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>30481</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>598059</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>153522</xdr:rowOff>
+      <xdr:rowOff>46169</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="Group 18">
+        <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00A0AAE-A758-4B8F-98F4-1233E6FAB4B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF9D539-2222-4B66-A93D-A4A5A9779AF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22930,18 +23027,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3305175" y="12325350"/>
-          <a:ext cx="7034718" cy="1353672"/>
+          <a:off x="3343835" y="11412070"/>
+          <a:ext cx="7088506" cy="1363981"/>
           <a:chOff x="3385184" y="6171078"/>
-          <a:chExt cx="7088506" cy="1353672"/>
+          <a:chExt cx="7088506" cy="1443568"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="TextBox 19">
+          <xdr:cNvPr id="14" name="TextBox 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4558267-3950-39CB-659B-5B650967812C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D54CEA4-517A-61F9-AFA5-55AB4AE45D9D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22950,7 +23047,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3385184" y="6171078"/>
-            <a:ext cx="7088506" cy="1353672"/>
+            <a:ext cx="7088506" cy="1443568"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -23027,7 +23124,41 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>The percentage of ED visits with a discharge diagnosis of COVID-19 or RSV during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
+              <a:t>The percentage of ED visits with a discharge diagnosis of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>COVID-19</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> or </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="652B5A"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>RSV</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
@@ -23039,10 +23170,10 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="21" name="Group 20">
+          <xdr:cNvPr id="15" name="Group 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0903CDD-8819-3BAE-5773-A6DEB2537067}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F12389-F9D4-6945-A84C-1D5A8D2BC6EC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -23058,10 +23189,10 @@
         </xdr:grpSpPr>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="23" name="Straight Connector 22">
+            <xdr:cNvPr id="16" name="Straight Connector 15">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{995D5BB8-A549-A4D2-C8D9-837CBC9E367F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32536AEE-A1AC-2B70-96B7-E6E767F90BF9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -23098,10 +23229,10 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="26" name="Oval 25">
+            <xdr:cNvPr id="17" name="Oval 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA37BB6-864F-717E-31BF-0B2C8FBD6116}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38665A96-5F98-DC33-89E9-FD45598409FE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -24192,7 +24323,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
-                <a:srgbClr val="F06F19"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>COVID-19</a:t>
@@ -24309,7 +24442,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" b="1" kern="1200">
               <a:solidFill>
-                <a:srgbClr val="890664"/>
+                <a:srgbClr val="652B5A"/>
               </a:solidFill>
             </a:rPr>
             <a:t>RSV</a:t>
@@ -24423,7 +24556,9 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" kern="1200">
               <a:solidFill>
-                <a:srgbClr val="F06F19"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>0.9%</a:t>
@@ -24537,7 +24672,7 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200" kern="1200">
               <a:solidFill>
-                <a:srgbClr val="890664"/>
+                <a:srgbClr val="652B5A"/>
               </a:solidFill>
             </a:rPr>
             <a:t>0.5%</a:t>
@@ -29499,7 +29634,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D929889-5A39-4277-A2E4-0E03BDC0D5B5}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6D929889-5A39-4277-A2E4-0E03BDC0D5B5}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I4:L176" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -30614,25 +30749,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C139FD-3409-420C-A12A-B6DBF658E664}">
   <dimension ref="A1:L514"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5:L176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30658,7 +30793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44849</v>
       </c>
@@ -30684,7 +30819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44849</v>
       </c>
@@ -30704,7 +30839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44849</v>
       </c>
@@ -30730,7 +30865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45017</v>
       </c>
@@ -30762,7 +30897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45017</v>
       </c>
@@ -30784,17 +30919,17 @@
       <c r="I6" s="3">
         <v>44835</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6">
         <v>0.48</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6">
         <v>1.84</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45017</v>
       </c>
@@ -30816,17 +30951,17 @@
       <c r="I7" s="3">
         <v>44842</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>0.67</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>0.6</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>1.68</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45024</v>
       </c>
@@ -30848,17 +30983,17 @@
       <c r="I8" s="3">
         <v>44849</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8">
         <v>0.9</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>0.73</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8">
         <v>1.63</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45024</v>
       </c>
@@ -30880,17 +31015,17 @@
       <c r="I9" s="3">
         <v>44856</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>1.29</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>0.84</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9">
         <v>1.61</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45024</v>
       </c>
@@ -30912,17 +31047,17 @@
       <c r="I10" s="3">
         <v>44863</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10">
         <v>1.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45052</v>
       </c>
@@ -30944,17 +31079,17 @@
       <c r="I11" s="3">
         <v>44870</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>3.67</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11">
         <v>1.72</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45052</v>
       </c>
@@ -30976,17 +31111,17 @@
       <c r="I12" s="3">
         <v>44877</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>3.87</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>1.21</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12">
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45052</v>
       </c>
@@ -31008,17 +31143,17 @@
       <c r="I13" s="3">
         <v>44884</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>4.24</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>1.76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45115</v>
       </c>
@@ -31040,17 +31175,17 @@
       <c r="I14" s="3">
         <v>44891</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>6.67</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>1.02</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14">
         <v>2.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45115</v>
       </c>
@@ -31072,17 +31207,17 @@
       <c r="I15" s="3">
         <v>44898</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>6.18</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>0.82</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>2.6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45115</v>
       </c>
@@ -31104,17 +31239,17 @@
       <c r="I16" s="3">
         <v>44905</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16">
         <v>5.7</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <v>0.65</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16">
         <v>2.72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45136</v>
       </c>
@@ -31136,17 +31271,17 @@
       <c r="I17" s="3">
         <v>44912</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>5.14</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>0.54</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17">
         <v>2.9</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45136</v>
       </c>
@@ -31168,17 +31303,17 @@
       <c r="I18" s="3">
         <v>44919</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18">
         <v>4.53</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18">
         <v>0.46</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18">
         <v>3.28</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45136</v>
       </c>
@@ -31200,17 +31335,17 @@
       <c r="I19" s="3">
         <v>44926</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>3.6</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <v>0.4</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19">
         <v>3.8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45164</v>
       </c>
@@ -31232,17 +31367,17 @@
       <c r="I20" s="3">
         <v>44933</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20">
         <v>1.96</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
         <v>0.33</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20">
         <v>3.32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45164</v>
       </c>
@@ -31264,17 +31399,17 @@
       <c r="I21" s="3">
         <v>44940</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21">
         <v>1.01</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>0.23</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21">
         <v>2.58</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45164</v>
       </c>
@@ -31296,17 +31431,17 @@
       <c r="I22" s="3">
         <v>44947</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22">
         <v>0.71</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22">
         <v>0.18</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45227</v>
       </c>
@@ -31328,17 +31463,17 @@
       <c r="I23" s="3">
         <v>44954</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23">
         <v>0.15</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23">
         <v>2.13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45227</v>
       </c>
@@ -31360,17 +31495,17 @@
       <c r="I24" s="3">
         <v>44961</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24">
         <v>0.47</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24">
         <v>0.12</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24">
         <v>2.06</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45227</v>
       </c>
@@ -31392,17 +31527,17 @@
       <c r="I25" s="3">
         <v>44968</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25">
         <v>0.4</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
         <v>0.11</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25">
         <v>1.95</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45339</v>
       </c>
@@ -31424,17 +31559,17 @@
       <c r="I26" s="3">
         <v>44975</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26">
         <v>0.36</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26">
         <v>0.09</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26">
         <v>1.84</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45339</v>
       </c>
@@ -31456,17 +31591,17 @@
       <c r="I27" s="3">
         <v>44982</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27">
         <v>0.34</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27">
         <v>0.08</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27">
         <v>1.73</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45339</v>
       </c>
@@ -31488,17 +31623,17 @@
       <c r="I28" s="3">
         <v>44989</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28">
         <v>0.3</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28">
         <v>1.51</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45388</v>
       </c>
@@ -31520,17 +31655,17 @@
       <c r="I29" s="3">
         <v>44996</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29">
         <v>1.32</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45388</v>
       </c>
@@ -31552,17 +31687,17 @@
       <c r="I30" s="3">
         <v>45003</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30">
         <v>0.06</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30">
         <v>1.22</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45388</v>
       </c>
@@ -31584,17 +31719,17 @@
       <c r="I31" s="3">
         <v>45010</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31">
         <v>0.27</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31">
         <v>0.05</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31">
         <v>1.17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45479</v>
       </c>
@@ -31616,17 +31751,17 @@
       <c r="I32" s="3">
         <v>45017</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32">
         <v>0.27</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32">
         <v>0.04</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45479</v>
       </c>
@@ -31648,17 +31783,17 @@
       <c r="I33" s="3">
         <v>45024</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33">
         <v>0.27</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33">
         <v>0.04</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45479</v>
       </c>
@@ -31680,17 +31815,17 @@
       <c r="I34" s="3">
         <v>45031</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34">
         <v>0.25</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34">
         <v>0.03</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34">
         <v>0.91</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45500</v>
       </c>
@@ -31712,17 +31847,17 @@
       <c r="I35" s="3">
         <v>45038</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35">
         <v>0.23</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35">
         <v>0.03</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35">
         <v>0.77</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45500</v>
       </c>
@@ -31744,17 +31879,17 @@
       <c r="I36" s="3">
         <v>45045</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36">
         <v>0.24</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36">
         <v>0.03</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36">
         <v>0.7</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45500</v>
       </c>
@@ -31776,17 +31911,17 @@
       <c r="I37" s="3">
         <v>45052</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37">
         <v>0.26</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37">
         <v>0.03</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37">
         <v>0.67</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45514</v>
       </c>
@@ -31808,17 +31943,17 @@
       <c r="I38" s="3">
         <v>45059</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38">
         <v>0.27</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38">
         <v>0.03</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38">
         <v>0.63</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45514</v>
       </c>
@@ -31840,17 +31975,17 @@
       <c r="I39" s="3">
         <v>45066</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39">
         <v>0.27</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39">
         <v>0.02</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45514</v>
       </c>
@@ -31872,17 +32007,17 @@
       <c r="I40" s="3">
         <v>45073</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40">
         <v>0.02</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45521</v>
       </c>
@@ -31904,17 +32039,17 @@
       <c r="I41" s="3">
         <v>45080</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
         <v>0.02</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45521</v>
       </c>
@@ -31936,17 +32071,17 @@
       <c r="I42" s="3">
         <v>45087</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42">
         <v>0.25</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42">
         <v>0.02</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42">
         <v>0.49</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45521</v>
       </c>
@@ -31968,17 +32103,17 @@
       <c r="I43" s="3">
         <v>45094</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43">
         <v>0.22</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43">
         <v>0.02</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43">
         <v>0.49</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45563</v>
       </c>
@@ -32000,17 +32135,17 @@
       <c r="I44" s="3">
         <v>45101</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44">
         <v>0.2</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44">
         <v>0.02</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44">
         <v>0.51</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45563</v>
       </c>
@@ -32032,17 +32167,17 @@
       <c r="I45" s="3">
         <v>45108</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45">
         <v>0.18</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45">
         <v>0.02</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45">
         <v>0.54</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45563</v>
       </c>
@@ -32064,17 +32199,17 @@
       <c r="I46" s="3">
         <v>45115</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46">
         <v>0.17</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46">
         <v>0.02</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46">
         <v>0.61</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45570</v>
       </c>
@@ -32096,17 +32231,17 @@
       <c r="I47" s="3">
         <v>45122</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47">
         <v>0.16</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47">
         <v>0.02</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47">
         <v>0.68</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45570</v>
       </c>
@@ -32128,17 +32263,17 @@
       <c r="I48" s="3">
         <v>45129</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48">
         <v>0.15</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48">
         <v>0.02</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48">
         <v>0.83</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45570</v>
       </c>
@@ -32160,17 +32295,17 @@
       <c r="I49" s="3">
         <v>45136</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49">
         <v>0.15</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49">
         <v>0.03</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49">
         <v>1.04</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45633</v>
       </c>
@@ -32192,17 +32327,17 @@
       <c r="I50" s="3">
         <v>45143</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50">
         <v>0.16</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50">
         <v>0.04</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50">
         <v>1.3</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45633</v>
       </c>
@@ -32224,17 +32359,17 @@
       <c r="I51" s="3">
         <v>45150</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51">
         <v>0.16</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51">
         <v>0.04</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51">
         <v>1.59</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45633</v>
       </c>
@@ -32256,17 +32391,17 @@
       <c r="I52" s="3">
         <v>45157</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52">
         <v>0.18</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52">
         <v>0.05</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52">
         <v>1.97</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45668</v>
       </c>
@@ -32288,17 +32423,17 @@
       <c r="I53" s="3">
         <v>45164</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53">
         <v>0.22</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53">
         <v>0.05</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53">
         <v>2.41</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45668</v>
       </c>
@@ -32320,17 +32455,17 @@
       <c r="I54" s="3">
         <v>45171</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54">
         <v>0.24</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54">
         <v>0.06</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54">
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45668</v>
       </c>
@@ -32352,17 +32487,17 @@
       <c r="I55" s="3">
         <v>45178</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55">
         <v>0.25</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55">
         <v>0.08</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55">
         <v>2.42</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45738</v>
       </c>
@@ -32384,17 +32519,17 @@
       <c r="I56" s="3">
         <v>45185</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56">
         <v>0.26</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56">
         <v>0.09</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56">
         <v>2.06</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45738</v>
       </c>
@@ -32416,17 +32551,17 @@
       <c r="I57" s="3">
         <v>45192</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57">
         <v>0.13</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57">
         <v>1.89</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45738</v>
       </c>
@@ -32448,17 +32583,17 @@
       <c r="I58" s="3">
         <v>45199</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58">
         <v>0.33</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58">
         <v>0.17</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58">
         <v>1.69</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45773</v>
       </c>
@@ -32480,17 +32615,17 @@
       <c r="I59" s="3">
         <v>45206</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59">
         <v>0.38</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59">
         <v>0.23</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59">
         <v>1.47</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45773</v>
       </c>
@@ -32512,17 +32647,17 @@
       <c r="I60" s="3">
         <v>45213</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60">
         <v>0.46</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60">
         <v>1.35</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45773</v>
       </c>
@@ -32544,17 +32679,17 @@
       <c r="I61" s="3">
         <v>45220</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61">
         <v>0.38</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61">
         <v>1.36</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45780</v>
       </c>
@@ -32576,17 +32711,17 @@
       <c r="I62" s="3">
         <v>45227</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62">
         <v>0.66</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62">
         <v>0.48</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62">
         <v>1.36</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45780</v>
       </c>
@@ -32608,17 +32743,17 @@
       <c r="I63" s="3">
         <v>45234</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63">
         <v>0.85</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63">
         <v>1.33</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45780</v>
       </c>
@@ -32640,17 +32775,17 @@
       <c r="I64" s="3">
         <v>45241</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64">
         <v>1.19</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64">
         <v>0.72</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64">
         <v>1.51</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45815</v>
       </c>
@@ -32672,17 +32807,17 @@
       <c r="I65" s="3">
         <v>45248</v>
       </c>
-      <c r="J65" s="5">
+      <c r="J65">
         <v>1.41</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65">
         <v>0.83</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65">
         <v>1.61</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45815</v>
       </c>
@@ -32704,17 +32839,17 @@
       <c r="I66" s="3">
         <v>45255</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66">
         <v>1.73</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66">
         <v>1</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66">
         <v>1.89</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45815</v>
       </c>
@@ -32736,17 +32871,17 @@
       <c r="I67" s="3">
         <v>45262</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67">
         <v>1.87</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67">
         <v>0.96</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67">
         <v>2.06</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45836</v>
       </c>
@@ -32768,17 +32903,17 @@
       <c r="I68" s="3">
         <v>45269</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68">
         <v>0.93</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68">
         <v>2.11</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45836</v>
       </c>
@@ -32800,17 +32935,17 @@
       <c r="I69" s="3">
         <v>45276</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69">
         <v>3.7</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69">
         <v>0.95</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69">
         <v>2.35</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45836</v>
       </c>
@@ -32832,17 +32967,17 @@
       <c r="I70" s="3">
         <v>45283</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70">
         <v>5.24</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70">
         <v>0.96</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70">
         <v>2.81</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45871</v>
       </c>
@@ -32864,17 +32999,17 @@
       <c r="I71" s="3">
         <v>45290</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71">
         <v>5.85</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71">
         <v>0.97</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71">
         <v>3.42</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45871</v>
       </c>
@@ -32896,17 +33031,17 @@
       <c r="I72" s="3">
         <v>45297</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72">
         <v>4.26</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72">
         <v>0.85</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72">
         <v>3.12</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45871</v>
       </c>
@@ -32928,17 +33063,17 @@
       <c r="I73" s="3">
         <v>45304</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J73">
         <v>3.48</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73">
         <v>0.59</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73">
         <v>2.63</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45878</v>
       </c>
@@ -32960,17 +33095,17 @@
       <c r="I74" s="3">
         <v>45311</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J74">
         <v>3.27</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74">
         <v>0.47</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45878</v>
       </c>
@@ -32992,17 +33127,17 @@
       <c r="I75" s="3">
         <v>45318</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75">
         <v>3.34</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75">
         <v>0.38</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75">
         <v>2.1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45878</v>
       </c>
@@ -33024,17 +33159,17 @@
       <c r="I76" s="3">
         <v>45325</v>
       </c>
-      <c r="J76" s="5">
+      <c r="J76">
         <v>3.23</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76">
         <v>0.34</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76">
         <v>1.97</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45899</v>
       </c>
@@ -33056,17 +33191,17 @@
       <c r="I77" s="3">
         <v>45332</v>
       </c>
-      <c r="J77" s="5">
+      <c r="J77">
         <v>3.19</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77">
         <v>0.3</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77">
         <v>1.94</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45899</v>
       </c>
@@ -33088,17 +33223,17 @@
       <c r="I78" s="3">
         <v>45339</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J78">
         <v>3.02</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78">
         <v>0.26</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78">
         <v>1.77</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45899</v>
       </c>
@@ -33120,17 +33255,17 @@
       <c r="I79" s="3">
         <v>45346</v>
       </c>
-      <c r="J79" s="5">
+      <c r="J79">
         <v>2.99</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79">
         <v>0.23</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79">
         <v>1.57</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45941</v>
       </c>
@@ -33152,17 +33287,17 @@
       <c r="I80" s="3">
         <v>45353</v>
       </c>
-      <c r="J80" s="5">
+      <c r="J80">
         <v>2.79</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80">
         <v>0.2</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80">
         <v>1.29</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45941</v>
       </c>
@@ -33184,17 +33319,17 @@
       <c r="I81" s="3">
         <v>45360</v>
       </c>
-      <c r="J81" s="5">
+      <c r="J81">
         <v>2.4300000000000002</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81">
         <v>0.16</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81">
         <v>1.01</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45941</v>
       </c>
@@ -33216,17 +33351,17 @@
       <c r="I82" s="3">
         <v>45367</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82">
         <v>1.87</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82">
         <v>0.79</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45969</v>
       </c>
@@ -33248,17 +33383,17 @@
       <c r="I83" s="3">
         <v>45374</v>
       </c>
-      <c r="J83" s="5">
+      <c r="J83">
         <v>1.51</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83">
         <v>0.11</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83">
         <v>0.65</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45969</v>
       </c>
@@ -33280,17 +33415,17 @@
       <c r="I84" s="3">
         <v>45381</v>
       </c>
-      <c r="J84" s="5">
+      <c r="J84">
         <v>1.43</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84">
         <v>0.1</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84">
         <v>0.59</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45969</v>
       </c>
@@ -33312,17 +33447,17 @@
       <c r="I85" s="3">
         <v>45388</v>
       </c>
-      <c r="J85" s="5">
+      <c r="J85">
         <v>1.17</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85">
         <v>0.09</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85">
         <v>0.52</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45983</v>
       </c>
@@ -33344,17 +33479,17 @@
       <c r="I86" s="3">
         <v>45395</v>
       </c>
-      <c r="J86" s="5">
+      <c r="J86">
         <v>0.87</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86">
         <v>0.44</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45983</v>
       </c>
@@ -33376,17 +33511,17 @@
       <c r="I87" s="3">
         <v>45402</v>
       </c>
-      <c r="J87" s="5">
+      <c r="J87">
         <v>0.65</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87">
         <v>0.05</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87">
         <v>0.38</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45983</v>
       </c>
@@ -33408,17 +33543,17 @@
       <c r="I88" s="3">
         <v>45409</v>
       </c>
-      <c r="J88" s="5">
+      <c r="J88">
         <v>0.52</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88">
         <v>0.04</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88">
         <v>0.35</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>46004</v>
       </c>
@@ -33440,17 +33575,17 @@
       <c r="I89" s="3">
         <v>45416</v>
       </c>
-      <c r="J89" s="5">
+      <c r="J89">
         <v>0.44</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89">
         <v>0.03</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89">
         <v>0.34</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>46004</v>
       </c>
@@ -33472,17 +33607,17 @@
       <c r="I90" s="3">
         <v>45423</v>
       </c>
-      <c r="J90" s="5">
+      <c r="J90">
         <v>0.34</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90">
         <v>0.03</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L90">
         <v>0.33</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>46004</v>
       </c>
@@ -33504,17 +33639,17 @@
       <c r="I91" s="3">
         <v>45430</v>
       </c>
-      <c r="J91" s="5">
+      <c r="J91">
         <v>0.31</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91">
         <v>0.03</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91">
         <v>0.38</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>46018</v>
       </c>
@@ -33536,17 +33671,17 @@
       <c r="I92" s="3">
         <v>45437</v>
       </c>
-      <c r="J92" s="5">
+      <c r="J92">
         <v>0.27</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92">
         <v>0.02</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92">
         <v>0.41</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>46018</v>
       </c>
@@ -33568,17 +33703,17 @@
       <c r="I93" s="3">
         <v>45444</v>
       </c>
-      <c r="J93" s="5">
+      <c r="J93">
         <v>0.26</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93">
         <v>0.02</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93">
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>46018</v>
       </c>
@@ -33600,17 +33735,17 @@
       <c r="I94" s="3">
         <v>45451</v>
       </c>
-      <c r="J94" s="5">
+      <c r="J94">
         <v>0.23</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94">
         <v>0.02</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44856</v>
       </c>
@@ -33632,17 +33767,17 @@
       <c r="I95" s="3">
         <v>45458</v>
       </c>
-      <c r="J95" s="5">
+      <c r="J95">
         <v>0.2</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95">
         <v>0.02</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95">
         <v>0.7</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44856</v>
       </c>
@@ -33664,17 +33799,17 @@
       <c r="I96" s="3">
         <v>45465</v>
       </c>
-      <c r="J96" s="5">
+      <c r="J96">
         <v>0.19</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96">
         <v>0.02</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96">
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44856</v>
       </c>
@@ -33696,17 +33831,17 @@
       <c r="I97" s="3">
         <v>45472</v>
       </c>
-      <c r="J97" s="5">
+      <c r="J97">
         <v>0.18</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97">
         <v>0.01</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97">
         <v>1.08</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44870</v>
       </c>
@@ -33728,17 +33863,17 @@
       <c r="I98" s="3">
         <v>45479</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98">
         <v>0.17</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98">
         <v>0.01</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98">
         <v>1.39</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44870</v>
       </c>
@@ -33760,17 +33895,17 @@
       <c r="I99" s="3">
         <v>45486</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99">
         <v>0.15</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99">
         <v>0.01</v>
       </c>
-      <c r="L99" s="5">
+      <c r="L99">
         <v>1.66</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44870</v>
       </c>
@@ -33792,17 +33927,17 @@
       <c r="I100" s="3">
         <v>45493</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100">
         <v>0.15</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100">
         <v>0.01</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100">
         <v>1.97</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44891</v>
       </c>
@@ -33824,17 +33959,17 @@
       <c r="I101" s="3">
         <v>45500</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101">
         <v>0.01</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44891</v>
       </c>
@@ -33856,17 +33991,17 @@
       <c r="I102" s="3">
         <v>45507</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102">
         <v>0.01</v>
       </c>
-      <c r="L102" s="5">
+      <c r="L102">
         <v>2.5</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44891</v>
       </c>
@@ -33888,17 +34023,17 @@
       <c r="I103" s="3">
         <v>45514</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K103">
         <v>0.02</v>
       </c>
-      <c r="L103" s="5">
+      <c r="L103">
         <v>2.56</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44905</v>
       </c>
@@ -33920,17 +34055,17 @@
       <c r="I104" s="3">
         <v>45521</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K104" s="5">
+      <c r="K104">
         <v>0.02</v>
       </c>
-      <c r="L104" s="5">
+      <c r="L104">
         <v>2.6</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44905</v>
       </c>
@@ -33952,17 +34087,17 @@
       <c r="I105" s="3">
         <v>45528</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J105">
         <v>0.16</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105">
         <v>0.02</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105">
         <v>2.62</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44905</v>
       </c>
@@ -33984,17 +34119,17 @@
       <c r="I106" s="3">
         <v>45535</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106">
         <v>0.17</v>
       </c>
-      <c r="K106" s="5">
+      <c r="K106">
         <v>0.02</v>
       </c>
-      <c r="L106" s="5">
+      <c r="L106">
         <v>2.44</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45010</v>
       </c>
@@ -34016,17 +34151,17 @@
       <c r="I107" s="3">
         <v>45542</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107">
         <v>0.18</v>
       </c>
-      <c r="K107" s="5">
+      <c r="K107">
         <v>0.03</v>
       </c>
-      <c r="L107" s="5">
+      <c r="L107">
         <v>2.12</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45010</v>
       </c>
@@ -34048,17 +34183,17 @@
       <c r="I108" s="3">
         <v>45549</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108">
         <v>0.19</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108">
         <v>0.03</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108">
         <v>1.77</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45010</v>
       </c>
@@ -34080,17 +34215,17 @@
       <c r="I109" s="3">
         <v>45556</v>
       </c>
-      <c r="J109" s="5">
+      <c r="J109">
         <v>0.19</v>
       </c>
-      <c r="K109" s="5">
+      <c r="K109">
         <v>0.04</v>
       </c>
-      <c r="L109" s="5">
+      <c r="L109">
         <v>1.44</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45038</v>
       </c>
@@ -34112,17 +34247,17 @@
       <c r="I110" s="3">
         <v>45563</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110">
         <v>0.2</v>
       </c>
-      <c r="K110" s="5">
+      <c r="K110">
         <v>0.05</v>
       </c>
-      <c r="L110" s="5">
+      <c r="L110">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45038</v>
       </c>
@@ -34144,17 +34279,17 @@
       <c r="I111" s="3">
         <v>45570</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111">
         <v>0.2</v>
       </c>
-      <c r="K111" s="5">
+      <c r="K111">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111">
         <v>0.85</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45038</v>
       </c>
@@ -34176,17 +34311,17 @@
       <c r="I112" s="3">
         <v>45577</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112">
         <v>0.22</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112">
         <v>0.09</v>
       </c>
-      <c r="L112" s="5">
+      <c r="L112">
         <v>0.7</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45045</v>
       </c>
@@ -34208,17 +34343,17 @@
       <c r="I113" s="3">
         <v>45584</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113">
         <v>0.23</v>
       </c>
-      <c r="K113" s="5">
+      <c r="K113">
         <v>0.11</v>
       </c>
-      <c r="L113" s="5">
+      <c r="L113">
         <v>0.61</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45045</v>
       </c>
@@ -34240,17 +34375,17 @@
       <c r="I114" s="3">
         <v>45591</v>
       </c>
-      <c r="J114" s="5">
+      <c r="J114">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L114" s="5">
+      <c r="L114">
         <v>0.59</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45045</v>
       </c>
@@ -34272,17 +34407,17 @@
       <c r="I115" s="3">
         <v>45598</v>
       </c>
-      <c r="J115" s="5">
+      <c r="J115">
         <v>0.34</v>
       </c>
-      <c r="K115" s="5">
+      <c r="K115">
         <v>0.19</v>
       </c>
-      <c r="L115" s="5">
+      <c r="L115">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45059</v>
       </c>
@@ -34304,17 +34439,17 @@
       <c r="I116" s="3">
         <v>45605</v>
       </c>
-      <c r="J116" s="5">
+      <c r="J116">
         <v>0.42</v>
       </c>
-      <c r="K116" s="5">
+      <c r="K116">
         <v>0.26</v>
       </c>
-      <c r="L116" s="5">
+      <c r="L116">
         <v>0.52</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45059</v>
       </c>
@@ -34336,17 +34471,17 @@
       <c r="I117" s="3">
         <v>45612</v>
       </c>
-      <c r="J117" s="5">
+      <c r="J117">
         <v>0.51</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117">
         <v>0.36</v>
       </c>
-      <c r="L117" s="5">
+      <c r="L117">
         <v>0.49</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45059</v>
       </c>
@@ -34368,17 +34503,17 @@
       <c r="I118" s="3">
         <v>45619</v>
       </c>
-      <c r="J118" s="5">
+      <c r="J118">
         <v>0.62</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K118">
         <v>0.46</v>
       </c>
-      <c r="L118" s="5">
+      <c r="L118">
         <v>0.51</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45073</v>
       </c>
@@ -34400,17 +34535,17 @@
       <c r="I119" s="3">
         <v>45626</v>
       </c>
-      <c r="J119" s="5">
+      <c r="J119">
         <v>0.89</v>
       </c>
-      <c r="K119" s="5">
+      <c r="K119">
         <v>0.61</v>
       </c>
-      <c r="L119" s="5">
+      <c r="L119">
         <v>0.59</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45073</v>
       </c>
@@ -34432,17 +34567,17 @@
       <c r="I120" s="3">
         <v>45633</v>
       </c>
-      <c r="J120" s="5">
+      <c r="J120">
         <v>1.07</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K120">
         <v>0.64</v>
       </c>
-      <c r="L120" s="5">
+      <c r="L120">
         <v>0.67</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45073</v>
       </c>
@@ -34464,17 +34599,17 @@
       <c r="I121" s="3">
         <v>45640</v>
       </c>
-      <c r="J121" s="5">
+      <c r="J121">
         <v>1.8</v>
       </c>
-      <c r="K121" s="5">
+      <c r="K121">
         <v>0.74</v>
       </c>
-      <c r="L121" s="5">
+      <c r="L121">
         <v>0.75</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45080</v>
       </c>
@@ -34496,17 +34631,17 @@
       <c r="I122" s="3">
         <v>45647</v>
       </c>
-      <c r="J122" s="5">
+      <c r="J122">
         <v>3.24</v>
       </c>
-      <c r="K122" s="5">
+      <c r="K122">
         <v>0.91</v>
       </c>
-      <c r="L122" s="5">
+      <c r="L122">
         <v>0.94</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45080</v>
       </c>
@@ -34528,17 +34663,17 @@
       <c r="I123" s="3">
         <v>45654</v>
       </c>
-      <c r="J123" s="5">
+      <c r="J123">
         <v>5.44</v>
       </c>
-      <c r="K123" s="5">
+      <c r="K123">
         <v>1.08</v>
       </c>
-      <c r="L123" s="5">
+      <c r="L123">
         <v>1.29</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45080</v>
       </c>
@@ -34560,17 +34695,17 @@
       <c r="I124" s="3">
         <v>45661</v>
       </c>
-      <c r="J124" s="5">
+      <c r="J124">
         <v>4.99</v>
       </c>
-      <c r="K124" s="5">
+      <c r="K124">
         <v>1.06</v>
       </c>
-      <c r="L124" s="5">
+      <c r="L124">
         <v>1.36</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45108</v>
       </c>
@@ -34592,17 +34727,17 @@
       <c r="I125" s="3">
         <v>45668</v>
       </c>
-      <c r="J125" s="5">
+      <c r="J125">
         <v>4.3899999999999997</v>
       </c>
-      <c r="K125" s="5">
+      <c r="K125">
         <v>0.79</v>
       </c>
-      <c r="L125" s="5">
+      <c r="L125">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45108</v>
       </c>
@@ -34624,17 +34759,17 @@
       <c r="I126" s="3">
         <v>45675</v>
       </c>
-      <c r="J126" s="5">
+      <c r="J126">
         <v>5.45</v>
       </c>
-      <c r="K126" s="5">
+      <c r="K126">
         <v>0.63</v>
       </c>
-      <c r="L126" s="5">
+      <c r="L126">
         <v>0.98</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45108</v>
       </c>
@@ -34656,17 +34791,17 @@
       <c r="I127" s="3">
         <v>45682</v>
       </c>
-      <c r="J127" s="5">
+      <c r="J127">
         <v>7.29</v>
       </c>
-      <c r="K127" s="5">
+      <c r="K127">
         <v>0.61</v>
       </c>
-      <c r="L127" s="5">
+      <c r="L127">
         <v>1.01</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45129</v>
       </c>
@@ -34688,17 +34823,17 @@
       <c r="I128" s="3">
         <v>45689</v>
       </c>
-      <c r="J128" s="5">
+      <c r="J128">
         <v>8.36</v>
       </c>
-      <c r="K128" s="5">
+      <c r="K128">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L128" s="5">
+      <c r="L128">
         <v>1.01</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45129</v>
       </c>
@@ -34720,17 +34855,17 @@
       <c r="I129" s="3">
         <v>45696</v>
       </c>
-      <c r="J129" s="5">
+      <c r="J129">
         <v>8.2200000000000006</v>
       </c>
-      <c r="K129" s="5">
+      <c r="K129">
         <v>0.54</v>
       </c>
-      <c r="L129" s="5">
+      <c r="L129">
         <v>1.02</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45129</v>
       </c>
@@ -34752,17 +34887,17 @@
       <c r="I130" s="3">
         <v>45703</v>
       </c>
-      <c r="J130" s="5">
+      <c r="J130">
         <v>6.68</v>
       </c>
-      <c r="K130" s="5">
+      <c r="K130">
         <v>0.51</v>
       </c>
-      <c r="L130" s="5">
+      <c r="L130">
         <v>0.95</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45143</v>
       </c>
@@ -34784,17 +34919,17 @@
       <c r="I131" s="3">
         <v>45710</v>
       </c>
-      <c r="J131" s="5">
+      <c r="J131">
         <v>5.21</v>
       </c>
-      <c r="K131" s="5">
+      <c r="K131">
         <v>0.47</v>
       </c>
-      <c r="L131" s="5">
+      <c r="L131">
         <v>0.87</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45143</v>
       </c>
@@ -34816,17 +34951,17 @@
       <c r="I132" s="3">
         <v>45717</v>
       </c>
-      <c r="J132" s="5">
+      <c r="J132">
         <v>3.98</v>
       </c>
-      <c r="K132" s="5">
+      <c r="K132">
         <v>0.4</v>
       </c>
-      <c r="L132" s="5">
+      <c r="L132">
         <v>0.8</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45143</v>
       </c>
@@ -34848,17 +34983,17 @@
       <c r="I133" s="3">
         <v>45724</v>
       </c>
-      <c r="J133" s="5">
+      <c r="J133">
         <v>3.22</v>
       </c>
-      <c r="K133" s="5">
+      <c r="K133">
         <v>0.36</v>
       </c>
-      <c r="L133" s="5">
+      <c r="L133">
         <v>0.8</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45178</v>
       </c>
@@ -34880,17 +35015,17 @@
       <c r="I134" s="3">
         <v>45731</v>
       </c>
-      <c r="J134" s="5">
+      <c r="J134">
         <v>2.57</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134">
         <v>0.31</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134">
         <v>0.76</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45178</v>
       </c>
@@ -34912,17 +35047,17 @@
       <c r="I135" s="3">
         <v>45738</v>
       </c>
-      <c r="J135" s="5">
+      <c r="J135">
         <v>1.84</v>
       </c>
-      <c r="K135" s="5">
+      <c r="K135">
         <v>0.26</v>
       </c>
-      <c r="L135" s="5">
+      <c r="L135">
         <v>0.69</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45178</v>
       </c>
@@ -34944,17 +35079,17 @@
       <c r="I136" s="3">
         <v>45745</v>
       </c>
-      <c r="J136" s="5">
+      <c r="J136">
         <v>1.44</v>
       </c>
-      <c r="K136" s="5">
+      <c r="K136">
         <v>0.21</v>
       </c>
-      <c r="L136" s="5">
+      <c r="L136">
         <v>0.65</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45185</v>
       </c>
@@ -34976,17 +35111,17 @@
       <c r="I137" s="3">
         <v>45752</v>
       </c>
-      <c r="J137" s="5">
+      <c r="J137">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K137" s="5">
+      <c r="K137">
         <v>0.17</v>
       </c>
-      <c r="L137" s="5">
+      <c r="L137">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45185</v>
       </c>
@@ -35008,17 +35143,17 @@
       <c r="I138" s="3">
         <v>45759</v>
       </c>
-      <c r="J138" s="5">
+      <c r="J138">
         <v>0.83</v>
       </c>
-      <c r="K138" s="5">
+      <c r="K138">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L138" s="5">
+      <c r="L138">
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45185</v>
       </c>
@@ -35040,17 +35175,17 @@
       <c r="I139" s="3">
         <v>45766</v>
       </c>
-      <c r="J139" s="5">
+      <c r="J139">
         <v>0.71</v>
       </c>
-      <c r="K139" s="5">
+      <c r="K139">
         <v>0.11</v>
       </c>
-      <c r="L139" s="5">
+      <c r="L139">
         <v>0.48</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45192</v>
       </c>
@@ -35072,17 +35207,17 @@
       <c r="I140" s="3">
         <v>45773</v>
       </c>
-      <c r="J140" s="5">
+      <c r="J140">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K140" s="5">
+      <c r="K140">
         <v>0.09</v>
       </c>
-      <c r="L140" s="5">
+      <c r="L140">
         <v>0.45</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45192</v>
       </c>
@@ -35104,17 +35239,17 @@
       <c r="I141" s="3">
         <v>45780</v>
       </c>
-      <c r="J141" s="5">
+      <c r="J141">
         <v>0.43</v>
       </c>
-      <c r="K141" s="5">
+      <c r="K141">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L141" s="5">
+      <c r="L141">
         <v>0.38</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45192</v>
       </c>
@@ -35136,17 +35271,17 @@
       <c r="I142" s="3">
         <v>45787</v>
       </c>
-      <c r="J142" s="5">
+      <c r="J142">
         <v>0.36</v>
       </c>
-      <c r="K142" s="5">
+      <c r="K142">
         <v>0.05</v>
       </c>
-      <c r="L142" s="5">
+      <c r="L142">
         <v>0.35</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45199</v>
       </c>
@@ -35168,17 +35303,17 @@
       <c r="I143" s="3">
         <v>45794</v>
       </c>
-      <c r="J143" s="5">
+      <c r="J143">
         <v>0.32</v>
       </c>
-      <c r="K143" s="5">
+      <c r="K143">
         <v>0.04</v>
       </c>
-      <c r="L143" s="5">
+      <c r="L143">
         <v>0.34</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45199</v>
       </c>
@@ -35200,17 +35335,17 @@
       <c r="I144" s="3">
         <v>45801</v>
       </c>
-      <c r="J144" s="5">
+      <c r="J144">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K144" s="5">
+      <c r="K144">
         <v>0.03</v>
       </c>
-      <c r="L144" s="5">
+      <c r="L144">
         <v>0.33</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45199</v>
       </c>
@@ -35232,17 +35367,17 @@
       <c r="I145" s="3">
         <v>45808</v>
       </c>
-      <c r="J145" s="5">
+      <c r="J145">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K145" s="5">
+      <c r="K145">
         <v>0.03</v>
       </c>
-      <c r="L145" s="5">
+      <c r="L145">
         <v>0.36</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45220</v>
       </c>
@@ -35264,17 +35399,17 @@
       <c r="I146" s="3">
         <v>45815</v>
       </c>
-      <c r="J146" s="5">
+      <c r="J146">
         <v>0.22</v>
       </c>
-      <c r="K146" s="5">
+      <c r="K146">
         <v>0.03</v>
       </c>
-      <c r="L146" s="5">
+      <c r="L146">
         <v>0.36</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45220</v>
       </c>
@@ -35296,17 +35431,17 @@
       <c r="I147" s="3">
         <v>45822</v>
       </c>
-      <c r="J147" s="5">
+      <c r="J147">
         <v>0.19</v>
       </c>
-      <c r="K147" s="5">
+      <c r="K147">
         <v>0.02</v>
       </c>
-      <c r="L147" s="5">
+      <c r="L147">
         <v>0.35</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45220</v>
       </c>
@@ -35328,17 +35463,17 @@
       <c r="I148" s="3">
         <v>45829</v>
       </c>
-      <c r="J148" s="5">
+      <c r="J148">
         <v>0.16</v>
       </c>
-      <c r="K148" s="5">
+      <c r="K148">
         <v>0.02</v>
       </c>
-      <c r="L148" s="5">
+      <c r="L148">
         <v>0.38</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45248</v>
       </c>
@@ -35360,17 +35495,17 @@
       <c r="I149" s="3">
         <v>45836</v>
       </c>
-      <c r="J149" s="5">
+      <c r="J149">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K149" s="5">
+      <c r="K149">
         <v>0.02</v>
       </c>
-      <c r="L149" s="5">
+      <c r="L149">
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45248</v>
       </c>
@@ -35392,17 +35527,17 @@
       <c r="I150" s="3">
         <v>45843</v>
       </c>
-      <c r="J150" s="5">
+      <c r="J150">
         <v>0.13</v>
       </c>
-      <c r="K150" s="5">
+      <c r="K150">
         <v>0.02</v>
       </c>
-      <c r="L150" s="5">
+      <c r="L150">
         <v>0.46</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45248</v>
       </c>
@@ -35424,17 +35559,17 @@
       <c r="I151" s="3">
         <v>45850</v>
       </c>
-      <c r="J151" s="5">
+      <c r="J151">
         <v>0.1</v>
       </c>
-      <c r="K151" s="5">
+      <c r="K151">
         <v>0.01</v>
       </c>
-      <c r="L151" s="5">
+      <c r="L151">
         <v>0.53</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45290</v>
       </c>
@@ -35456,17 +35591,17 @@
       <c r="I152" s="3">
         <v>45857</v>
       </c>
-      <c r="J152" s="5">
+      <c r="J152">
         <v>0.1</v>
       </c>
-      <c r="K152" s="5">
+      <c r="K152">
         <v>0.02</v>
       </c>
-      <c r="L152" s="5">
+      <c r="L152">
         <v>0.61</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45290</v>
       </c>
@@ -35488,17 +35623,17 @@
       <c r="I153" s="3">
         <v>45864</v>
       </c>
-      <c r="J153" s="5">
+      <c r="J153">
         <v>0.1</v>
       </c>
-      <c r="K153" s="5">
+      <c r="K153">
         <v>0.02</v>
       </c>
-      <c r="L153" s="5">
+      <c r="L153">
         <v>0.73</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45290</v>
       </c>
@@ -35520,17 +35655,17 @@
       <c r="I154" s="3">
         <v>45871</v>
       </c>
-      <c r="J154" s="5">
+      <c r="J154">
         <v>0.1</v>
       </c>
-      <c r="K154" s="5">
+      <c r="K154">
         <v>0.02</v>
       </c>
-      <c r="L154" s="5">
+      <c r="L154">
         <v>0.9</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45304</v>
       </c>
@@ -35552,17 +35687,17 @@
       <c r="I155" s="3">
         <v>45878</v>
       </c>
-      <c r="J155" s="5">
+      <c r="J155">
         <v>0.1</v>
       </c>
-      <c r="K155" s="5">
+      <c r="K155">
         <v>0.02</v>
       </c>
-      <c r="L155" s="5">
+      <c r="L155">
         <v>1.06</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45304</v>
       </c>
@@ -35584,17 +35719,17 @@
       <c r="I156" s="3">
         <v>45885</v>
       </c>
-      <c r="J156" s="5">
+      <c r="J156">
         <v>0.11</v>
       </c>
-      <c r="K156" s="5">
+      <c r="K156">
         <v>0.02</v>
       </c>
-      <c r="L156" s="5">
+      <c r="L156">
         <v>1.27</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45304</v>
       </c>
@@ -35616,17 +35751,17 @@
       <c r="I157" s="3">
         <v>45892</v>
       </c>
-      <c r="J157" s="5">
+      <c r="J157">
         <v>0.13</v>
       </c>
-      <c r="K157" s="5">
+      <c r="K157">
         <v>0.02</v>
       </c>
-      <c r="L157" s="5">
+      <c r="L157">
         <v>1.53</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45325</v>
       </c>
@@ -35648,17 +35783,17 @@
       <c r="I158" s="3">
         <v>45899</v>
       </c>
-      <c r="J158" s="5">
+      <c r="J158">
         <v>0.15</v>
       </c>
-      <c r="K158" s="5">
+      <c r="K158">
         <v>0.02</v>
       </c>
-      <c r="L158" s="5">
+      <c r="L158">
         <v>1.65</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45325</v>
       </c>
@@ -35680,17 +35815,17 @@
       <c r="I159" s="3">
         <v>45906</v>
       </c>
-      <c r="J159" s="5">
+      <c r="J159">
         <v>0.16</v>
       </c>
-      <c r="K159" s="5">
+      <c r="K159">
         <v>0.03</v>
       </c>
-      <c r="L159" s="5">
+      <c r="L159">
         <v>1.56</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45325</v>
       </c>
@@ -35712,17 +35847,17 @@
       <c r="I160" s="3">
         <v>45913</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160">
         <v>0.16</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160">
         <v>0.03</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160">
         <v>1.27</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45332</v>
       </c>
@@ -35744,17 +35879,17 @@
       <c r="I161" s="3">
         <v>45920</v>
       </c>
-      <c r="J161" s="5">
+      <c r="J161">
         <v>0.15</v>
       </c>
-      <c r="K161" s="5">
+      <c r="K161">
         <v>0.03</v>
       </c>
-      <c r="L161" s="5">
+      <c r="L161">
         <v>1.02</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45332</v>
       </c>
@@ -35776,17 +35911,17 @@
       <c r="I162" s="3">
         <v>45927</v>
       </c>
-      <c r="J162" s="5">
+      <c r="J162">
         <v>0.16</v>
       </c>
-      <c r="K162" s="5">
+      <c r="K162">
         <v>0.04</v>
       </c>
-      <c r="L162" s="5">
+      <c r="L162">
         <v>0.77</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45332</v>
       </c>
@@ -35808,17 +35943,17 @@
       <c r="I163" s="3">
         <v>45934</v>
       </c>
-      <c r="J163" s="5">
+      <c r="J163">
         <v>0.17</v>
       </c>
-      <c r="K163" s="5">
+      <c r="K163">
         <v>0.05</v>
       </c>
-      <c r="L163" s="5">
+      <c r="L163">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45360</v>
       </c>
@@ -35840,17 +35975,17 @@
       <c r="I164" s="3">
         <v>45941</v>
       </c>
-      <c r="J164" s="5">
+      <c r="J164">
         <v>0.18</v>
       </c>
-      <c r="K164" s="5">
+      <c r="K164">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L164" s="5">
+      <c r="L164">
         <v>0.45</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45360</v>
       </c>
@@ -35872,17 +36007,17 @@
       <c r="I165" s="3">
         <v>45948</v>
       </c>
-      <c r="J165" s="5">
+      <c r="J165">
         <v>0.2</v>
       </c>
-      <c r="K165" s="5">
+      <c r="K165">
         <v>0.08</v>
       </c>
-      <c r="L165" s="5">
+      <c r="L165">
         <v>0.37</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45360</v>
       </c>
@@ -35904,17 +36039,17 @@
       <c r="I166" s="3">
         <v>45955</v>
       </c>
-      <c r="J166" s="5">
+      <c r="J166">
         <v>0.23</v>
       </c>
-      <c r="K166" s="5">
+      <c r="K166">
         <v>0.08</v>
       </c>
-      <c r="L166" s="5">
+      <c r="L166">
         <v>0.32</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45395</v>
       </c>
@@ -35936,17 +36071,17 @@
       <c r="I167" s="3">
         <v>45962</v>
       </c>
-      <c r="J167" s="5">
+      <c r="J167">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K167" s="5">
+      <c r="K167">
         <v>0.11</v>
       </c>
-      <c r="L167" s="5">
+      <c r="L167">
         <v>0.31</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45395</v>
       </c>
@@ -35968,17 +36103,17 @@
       <c r="I168" s="3">
         <v>45969</v>
       </c>
-      <c r="J168" s="5">
+      <c r="J168">
         <v>0.42</v>
       </c>
-      <c r="K168" s="5">
+      <c r="K168">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L168" s="5">
+      <c r="L168">
         <v>0.32</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45395</v>
       </c>
@@ -36000,17 +36135,17 @@
       <c r="I169" s="3">
         <v>45976</v>
       </c>
-      <c r="J169" s="5">
+      <c r="J169">
         <v>0.61</v>
       </c>
-      <c r="K169" s="5">
+      <c r="K169">
         <v>0.15</v>
       </c>
-      <c r="L169" s="5">
+      <c r="L169">
         <v>0.34</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45416</v>
       </c>
@@ -36032,17 +36167,17 @@
       <c r="I170" s="3">
         <v>45983</v>
       </c>
-      <c r="J170" s="5">
+      <c r="J170">
         <v>0.98</v>
       </c>
-      <c r="K170" s="5">
+      <c r="K170">
         <v>0.2</v>
       </c>
-      <c r="L170" s="5">
+      <c r="L170">
         <v>0.35</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45416</v>
       </c>
@@ -36064,17 +36199,17 @@
       <c r="I171" s="3">
         <v>45990</v>
       </c>
-      <c r="J171" s="5">
+      <c r="J171">
         <v>1.45</v>
       </c>
-      <c r="K171" s="5">
+      <c r="K171">
         <v>0.27</v>
       </c>
-      <c r="L171" s="5">
+      <c r="L171">
         <v>0.39</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45416</v>
       </c>
@@ -36096,17 +36231,17 @@
       <c r="I172" s="3">
         <v>45997</v>
       </c>
-      <c r="J172" s="5">
+      <c r="J172">
         <v>1.66</v>
       </c>
-      <c r="K172" s="5">
+      <c r="K172">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L172" s="5">
+      <c r="L172">
         <v>0.45</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45423</v>
       </c>
@@ -36128,17 +36263,17 @@
       <c r="I173" s="3">
         <v>46004</v>
       </c>
-      <c r="J173" s="5">
+      <c r="J173">
         <v>2.89</v>
       </c>
-      <c r="K173" s="5">
+      <c r="K173">
         <v>0.32</v>
       </c>
-      <c r="L173" s="5">
+      <c r="L173">
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45423</v>
       </c>
@@ -36160,17 +36295,17 @@
       <c r="I174" s="3">
         <v>46011</v>
       </c>
-      <c r="J174" s="5">
+      <c r="J174">
         <v>5.55</v>
       </c>
-      <c r="K174" s="5">
+      <c r="K174">
         <v>0.41</v>
       </c>
-      <c r="L174" s="5">
+      <c r="L174">
         <v>0.65</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45423</v>
       </c>
@@ -36192,17 +36327,17 @@
       <c r="I175" s="3">
         <v>46018</v>
       </c>
-      <c r="J175" s="5">
+      <c r="J175">
         <v>8.51</v>
       </c>
-      <c r="K175" s="5">
+      <c r="K175">
         <v>0.52</v>
       </c>
-      <c r="L175" s="5">
+      <c r="L175">
         <v>0.87</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45465</v>
       </c>
@@ -36224,17 +36359,17 @@
       <c r="I176" s="3">
         <v>46025</v>
       </c>
-      <c r="J176" s="5">
+      <c r="J176">
         <v>6.26</v>
       </c>
-      <c r="K176" s="5">
+      <c r="K176">
         <v>0.5</v>
       </c>
-      <c r="L176" s="5">
+      <c r="L176">
         <v>0.92</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45465</v>
       </c>
@@ -36254,7 +36389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45465</v>
       </c>
@@ -36274,7 +36409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45472</v>
       </c>
@@ -36294,7 +36429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45472</v>
       </c>
@@ -36314,7 +36449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45472</v>
       </c>
@@ -36334,7 +36469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45584</v>
       </c>
@@ -36354,7 +36489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45584</v>
       </c>
@@ -36374,7 +36509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45584</v>
       </c>
@@ -36394,7 +36529,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45591</v>
       </c>
@@ -36414,7 +36549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45591</v>
       </c>
@@ -36434,7 +36569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45591</v>
       </c>
@@ -36454,7 +36589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45612</v>
       </c>
@@ -36474,7 +36609,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45612</v>
       </c>
@@ -36494,7 +36629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45612</v>
       </c>
@@ -36514,7 +36649,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45654</v>
       </c>
@@ -36534,7 +36669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45654</v>
       </c>
@@ -36554,7 +36689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45654</v>
       </c>
@@ -36574,7 +36709,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45682</v>
       </c>
@@ -36594,7 +36729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45682</v>
       </c>
@@ -36614,7 +36749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45682</v>
       </c>
@@ -36634,7 +36769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45689</v>
       </c>
@@ -36654,7 +36789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45689</v>
       </c>
@@ -36674,7 +36809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45689</v>
       </c>
@@ -36694,7 +36829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45703</v>
       </c>
@@ -36714,7 +36849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45703</v>
       </c>
@@ -36734,7 +36869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45703</v>
       </c>
@@ -36754,7 +36889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45724</v>
       </c>
@@ -36774,7 +36909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45724</v>
       </c>
@@ -36794,7 +36929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45724</v>
       </c>
@@ -36814,7 +36949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45752</v>
       </c>
@@ -36834,7 +36969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45752</v>
       </c>
@@ -36854,7 +36989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45752</v>
       </c>
@@ -36874,7 +37009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45822</v>
       </c>
@@ -36894,7 +37029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45822</v>
       </c>
@@ -36914,7 +37049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45822</v>
       </c>
@@ -36934,7 +37069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45864</v>
       </c>
@@ -36954,7 +37089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45864</v>
       </c>
@@ -36974,7 +37109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45864</v>
       </c>
@@ -36994,7 +37129,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45990</v>
       </c>
@@ -37014,7 +37149,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45990</v>
       </c>
@@ -37034,7 +37169,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45990</v>
       </c>
@@ -37054,7 +37189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44842</v>
       </c>
@@ -37074,7 +37209,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44842</v>
       </c>
@@ -37094,7 +37229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44842</v>
       </c>
@@ -37114,7 +37249,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44863</v>
       </c>
@@ -37134,7 +37269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44863</v>
       </c>
@@ -37154,7 +37289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44863</v>
       </c>
@@ -37174,7 +37309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44933</v>
       </c>
@@ -37194,7 +37329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44933</v>
       </c>
@@ -37214,7 +37349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44933</v>
       </c>
@@ -37234,7 +37369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44947</v>
       </c>
@@ -37254,7 +37389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44947</v>
       </c>
@@ -37274,7 +37409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44947</v>
       </c>
@@ -37294,7 +37429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44954</v>
       </c>
@@ -37314,7 +37449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44954</v>
       </c>
@@ -37334,7 +37469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44954</v>
       </c>
@@ -37354,7 +37489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44968</v>
       </c>
@@ -37374,7 +37509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44968</v>
       </c>
@@ -37394,7 +37529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44968</v>
       </c>
@@ -37414,7 +37549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44975</v>
       </c>
@@ -37434,7 +37569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44975</v>
       </c>
@@ -37454,7 +37589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44975</v>
       </c>
@@ -37474,7 +37609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44982</v>
       </c>
@@ -37494,7 +37629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44982</v>
       </c>
@@ -37514,7 +37649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44982</v>
       </c>
@@ -37534,7 +37669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44989</v>
       </c>
@@ -37554,7 +37689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44989</v>
       </c>
@@ -37574,7 +37709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44989</v>
       </c>
@@ -37594,7 +37729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44996</v>
       </c>
@@ -37614,7 +37749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44996</v>
       </c>
@@ -37634,7 +37769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44996</v>
       </c>
@@ -37654,7 +37789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45066</v>
       </c>
@@ -37674,7 +37809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45066</v>
       </c>
@@ -37694,7 +37829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45066</v>
       </c>
@@ -37714,7 +37849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45087</v>
       </c>
@@ -37734,7 +37869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45087</v>
       </c>
@@ -37754,7 +37889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45087</v>
       </c>
@@ -37774,7 +37909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45094</v>
       </c>
@@ -37794,7 +37929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45094</v>
       </c>
@@ -37814,7 +37949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45094</v>
       </c>
@@ -37834,7 +37969,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45101</v>
       </c>
@@ -37854,7 +37989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45101</v>
       </c>
@@ -37874,7 +38009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45101</v>
       </c>
@@ -37894,7 +38029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45122</v>
       </c>
@@ -37914,7 +38049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45122</v>
       </c>
@@ -37934,7 +38069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45122</v>
       </c>
@@ -37954,7 +38089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45171</v>
       </c>
@@ -37974,7 +38109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45171</v>
       </c>
@@ -37994,7 +38129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45171</v>
       </c>
@@ -38014,7 +38149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45234</v>
       </c>
@@ -38034,7 +38169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45234</v>
       </c>
@@ -38054,7 +38189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45234</v>
       </c>
@@ -38074,7 +38209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45262</v>
       </c>
@@ -38094,7 +38229,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45262</v>
       </c>
@@ -38114,7 +38249,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45262</v>
       </c>
@@ -38134,7 +38269,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45283</v>
       </c>
@@ -38154,7 +38289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45283</v>
       </c>
@@ -38174,7 +38309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45283</v>
       </c>
@@ -38194,7 +38329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45297</v>
       </c>
@@ -38214,7 +38349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45297</v>
       </c>
@@ -38234,7 +38369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45297</v>
       </c>
@@ -38254,7 +38389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45311</v>
       </c>
@@ -38274,7 +38409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45311</v>
       </c>
@@ -38294,7 +38429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45311</v>
       </c>
@@ -38314,7 +38449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45318</v>
       </c>
@@ -38334,7 +38469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45318</v>
       </c>
@@ -38354,7 +38489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45318</v>
       </c>
@@ -38374,7 +38509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45353</v>
       </c>
@@ -38394,7 +38529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45353</v>
       </c>
@@ -38414,7 +38549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45353</v>
       </c>
@@ -38434,7 +38569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45367</v>
       </c>
@@ -38454,7 +38589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45367</v>
       </c>
@@ -38474,7 +38609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45367</v>
       </c>
@@ -38494,7 +38629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45374</v>
       </c>
@@ -38514,7 +38649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45374</v>
       </c>
@@ -38534,7 +38669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45374</v>
       </c>
@@ -38554,7 +38689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45402</v>
       </c>
@@ -38574,7 +38709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45402</v>
       </c>
@@ -38594,7 +38729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45402</v>
       </c>
@@ -38614,7 +38749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45409</v>
       </c>
@@ -38634,7 +38769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45409</v>
       </c>
@@ -38654,7 +38789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45409</v>
       </c>
@@ -38674,7 +38809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45507</v>
       </c>
@@ -38694,7 +38829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45507</v>
       </c>
@@ -38714,7 +38849,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45507</v>
       </c>
@@ -38734,7 +38869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45535</v>
       </c>
@@ -38754,7 +38889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45535</v>
       </c>
@@ -38774,7 +38909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45535</v>
       </c>
@@ -38794,7 +38929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45542</v>
       </c>
@@ -38814,7 +38949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45542</v>
       </c>
@@ -38834,7 +38969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45542</v>
       </c>
@@ -38854,7 +38989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45556</v>
       </c>
@@ -38874,7 +39009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45556</v>
       </c>
@@ -38894,7 +39029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45556</v>
       </c>
@@ -38914,7 +39049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45598</v>
       </c>
@@ -38934,7 +39069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45598</v>
       </c>
@@ -38954,7 +39089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45598</v>
       </c>
@@ -38974,7 +39109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45619</v>
       </c>
@@ -38994,7 +39129,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45619</v>
       </c>
@@ -39014,7 +39149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45619</v>
       </c>
@@ -39034,7 +39169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45640</v>
       </c>
@@ -39054,7 +39189,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>45640</v>
       </c>
@@ -39074,7 +39209,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>45640</v>
       </c>
@@ -39094,7 +39229,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>45647</v>
       </c>
@@ -39114,7 +39249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45647</v>
       </c>
@@ -39134,7 +39269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45647</v>
       </c>
@@ -39154,7 +39289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45661</v>
       </c>
@@ -39174,7 +39309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45661</v>
       </c>
@@ -39194,7 +39329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>45661</v>
       </c>
@@ -39214,7 +39349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>45675</v>
       </c>
@@ -39234,7 +39369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>45675</v>
       </c>
@@ -39254,7 +39389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>45675</v>
       </c>
@@ -39274,7 +39409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>45696</v>
       </c>
@@ -39294,7 +39429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>45696</v>
       </c>
@@ -39314,7 +39449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>45696</v>
       </c>
@@ -39334,7 +39469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>45710</v>
       </c>
@@ -39354,7 +39489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>45710</v>
       </c>
@@ -39374,7 +39509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>45710</v>
       </c>
@@ -39394,7 +39529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>45759</v>
       </c>
@@ -39414,7 +39549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>45759</v>
       </c>
@@ -39434,7 +39569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>45759</v>
       </c>
@@ -39454,7 +39589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>45794</v>
       </c>
@@ -39474,7 +39609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>45794</v>
       </c>
@@ -39494,7 +39629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>45794</v>
       </c>
@@ -39514,7 +39649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>45801</v>
       </c>
@@ -39534,7 +39669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>45801</v>
       </c>
@@ -39554,7 +39689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>45801</v>
       </c>
@@ -39574,7 +39709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>45850</v>
       </c>
@@ -39594,7 +39729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>45850</v>
       </c>
@@ -39614,7 +39749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>45850</v>
       </c>
@@ -39634,7 +39769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>45906</v>
       </c>
@@ -39654,7 +39789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>45906</v>
       </c>
@@ -39674,7 +39809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>45906</v>
       </c>
@@ -39694,7 +39829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>45913</v>
       </c>
@@ -39714,7 +39849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>45913</v>
       </c>
@@ -39734,7 +39869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>45913</v>
       </c>
@@ -39754,7 +39889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>45920</v>
       </c>
@@ -39774,7 +39909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>45920</v>
       </c>
@@ -39794,7 +39929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>45920</v>
       </c>
@@ -39814,7 +39949,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>45927</v>
       </c>
@@ -39834,7 +39969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>45927</v>
       </c>
@@ -39854,7 +39989,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>45927</v>
       </c>
@@ -39874,7 +40009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>45955</v>
       </c>
@@ -39894,7 +40029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>45955</v>
       </c>
@@ -39914,7 +40049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>45955</v>
       </c>
@@ -39934,7 +40069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>45962</v>
       </c>
@@ -39954,7 +40089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>45962</v>
       </c>
@@ -39974,7 +40109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>45962</v>
       </c>
@@ -39994,7 +40129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>45976</v>
       </c>
@@ -40014,7 +40149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>45976</v>
       </c>
@@ -40034,7 +40169,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>45976</v>
       </c>
@@ -40054,7 +40189,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>45997</v>
       </c>
@@ -40074,7 +40209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>45997</v>
       </c>
@@ -40094,7 +40229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>45997</v>
       </c>
@@ -40114,7 +40249,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>44835</v>
       </c>
@@ -40134,7 +40269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>44835</v>
       </c>
@@ -40154,7 +40289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>44835</v>
       </c>
@@ -40174,7 +40309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>44877</v>
       </c>
@@ -40194,7 +40329,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>44877</v>
       </c>
@@ -40214,7 +40349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>44877</v>
       </c>
@@ -40234,7 +40369,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>44884</v>
       </c>
@@ -40254,7 +40389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>44884</v>
       </c>
@@ -40274,7 +40409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>44884</v>
       </c>
@@ -40294,7 +40429,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>44898</v>
       </c>
@@ -40314,7 +40449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>44898</v>
       </c>
@@ -40334,7 +40469,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>44898</v>
       </c>
@@ -40354,7 +40489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>44912</v>
       </c>
@@ -40374,7 +40509,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>44912</v>
       </c>
@@ -40394,7 +40529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>44912</v>
       </c>
@@ -40414,7 +40549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>44919</v>
       </c>
@@ -40434,7 +40569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>44919</v>
       </c>
@@ -40454,7 +40589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>44919</v>
       </c>
@@ -40474,7 +40609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>44926</v>
       </c>
@@ -40494,7 +40629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>44926</v>
       </c>
@@ -40514,7 +40649,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>44926</v>
       </c>
@@ -40534,7 +40669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>44940</v>
       </c>
@@ -40554,7 +40689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>44940</v>
       </c>
@@ -40574,7 +40709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>44940</v>
       </c>
@@ -40594,7 +40729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>44961</v>
       </c>
@@ -40614,7 +40749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>44961</v>
       </c>
@@ -40634,7 +40769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>44961</v>
       </c>
@@ -40654,7 +40789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>45003</v>
       </c>
@@ -40674,7 +40809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>45003</v>
       </c>
@@ -40694,7 +40829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>45003</v>
       </c>
@@ -40714,7 +40849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>45031</v>
       </c>
@@ -40734,7 +40869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>45031</v>
       </c>
@@ -40754,7 +40889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>45031</v>
       </c>
@@ -40774,7 +40909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>45150</v>
       </c>
@@ -40794,7 +40929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>45150</v>
       </c>
@@ -40814,7 +40949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>45150</v>
       </c>
@@ -40834,7 +40969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>45157</v>
       </c>
@@ -40854,7 +40989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>45157</v>
       </c>
@@ -40874,7 +41009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>45157</v>
       </c>
@@ -40894,7 +41029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>45206</v>
       </c>
@@ -40914,7 +41049,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>45206</v>
       </c>
@@ -40934,7 +41069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>45206</v>
       </c>
@@ -40954,7 +41089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>45213</v>
       </c>
@@ -40974,7 +41109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>45213</v>
       </c>
@@ -40994,7 +41129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>45213</v>
       </c>
@@ -41014,7 +41149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>45241</v>
       </c>
@@ -41034,7 +41169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>45241</v>
       </c>
@@ -41054,7 +41189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>45241</v>
       </c>
@@ -41074,7 +41209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>45255</v>
       </c>
@@ -41094,7 +41229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>45255</v>
       </c>
@@ -41114,7 +41249,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>45255</v>
       </c>
@@ -41134,7 +41269,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>45269</v>
       </c>
@@ -41154,7 +41289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>45269</v>
       </c>
@@ -41174,7 +41309,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>45269</v>
       </c>
@@ -41194,7 +41329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>45276</v>
       </c>
@@ -41214,7 +41349,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>45276</v>
       </c>
@@ -41234,7 +41369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>45276</v>
       </c>
@@ -41254,7 +41389,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>45346</v>
       </c>
@@ -41274,7 +41409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>45346</v>
       </c>
@@ -41294,7 +41429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>45346</v>
       </c>
@@ -41314,7 +41449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>45381</v>
       </c>
@@ -41334,7 +41469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>45381</v>
       </c>
@@ -41354,7 +41489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>45381</v>
       </c>
@@ -41374,7 +41509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>45430</v>
       </c>
@@ -41394,7 +41529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>45430</v>
       </c>
@@ -41414,7 +41549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>45430</v>
       </c>
@@ -41434,7 +41569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>45437</v>
       </c>
@@ -41454,7 +41589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>45437</v>
       </c>
@@ -41474,7 +41609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>45437</v>
       </c>
@@ -41494,7 +41629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>45444</v>
       </c>
@@ -41514,7 +41649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>45444</v>
       </c>
@@ -41534,7 +41669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>45444</v>
       </c>
@@ -41554,7 +41689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>45451</v>
       </c>
@@ -41574,7 +41709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>45451</v>
       </c>
@@ -41594,7 +41729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>45451</v>
       </c>
@@ -41614,7 +41749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>45458</v>
       </c>
@@ -41634,7 +41769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>45458</v>
       </c>
@@ -41654,7 +41789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>45458</v>
       </c>
@@ -41674,7 +41809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>45486</v>
       </c>
@@ -41694,7 +41829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>45486</v>
       </c>
@@ -41714,7 +41849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>45486</v>
       </c>
@@ -41734,7 +41869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>45493</v>
       </c>
@@ -41754,7 +41889,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>45493</v>
       </c>
@@ -41774,7 +41909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>45493</v>
       </c>
@@ -41794,7 +41929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>45528</v>
       </c>
@@ -41814,7 +41949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>45528</v>
       </c>
@@ -41834,7 +41969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>45528</v>
       </c>
@@ -41854,7 +41989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>45549</v>
       </c>
@@ -41874,7 +42009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>45549</v>
       </c>
@@ -41894,7 +42029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>45549</v>
       </c>
@@ -41914,7 +42049,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>45577</v>
       </c>
@@ -41934,7 +42069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>45577</v>
       </c>
@@ -41954,7 +42089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>45577</v>
       </c>
@@ -41974,7 +42109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>45605</v>
       </c>
@@ -41994,7 +42129,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>45605</v>
       </c>
@@ -42014,7 +42149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>45605</v>
       </c>
@@ -42034,7 +42169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>45626</v>
       </c>
@@ -42054,7 +42189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>45626</v>
       </c>
@@ -42074,7 +42209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>45626</v>
       </c>
@@ -42094,7 +42229,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>45717</v>
       </c>
@@ -42114,7 +42249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>45717</v>
       </c>
@@ -42134,7 +42269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>45717</v>
       </c>
@@ -42154,7 +42289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>45731</v>
       </c>
@@ -42174,7 +42309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>45731</v>
       </c>
@@ -42194,7 +42329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>45731</v>
       </c>
@@ -42214,7 +42349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>45745</v>
       </c>
@@ -42234,7 +42369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>45745</v>
       </c>
@@ -42254,7 +42389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>45745</v>
       </c>
@@ -42274,7 +42409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>45766</v>
       </c>
@@ -42294,7 +42429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>45766</v>
       </c>
@@ -42314,7 +42449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>45766</v>
       </c>
@@ -42334,7 +42469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>45787</v>
       </c>
@@ -42354,7 +42489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>45787</v>
       </c>
@@ -42374,7 +42509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>45787</v>
       </c>
@@ -42394,7 +42529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>45808</v>
       </c>
@@ -42414,7 +42549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>45808</v>
       </c>
@@ -42434,7 +42569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>45808</v>
       </c>
@@ -42454,7 +42589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>45829</v>
       </c>
@@ -42474,7 +42609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>45829</v>
       </c>
@@ -42494,7 +42629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>45829</v>
       </c>
@@ -42514,7 +42649,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>45843</v>
       </c>
@@ -42534,7 +42669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>45843</v>
       </c>
@@ -42554,7 +42689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>45843</v>
       </c>
@@ -42574,7 +42709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>45857</v>
       </c>
@@ -42594,7 +42729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>45857</v>
       </c>
@@ -42614,7 +42749,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>45857</v>
       </c>
@@ -42634,7 +42769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>45885</v>
       </c>
@@ -42654,7 +42789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>45885</v>
       </c>
@@ -42674,7 +42809,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>45885</v>
       </c>
@@ -42694,7 +42829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>45892</v>
       </c>
@@ -42714,7 +42849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>45892</v>
       </c>
@@ -42734,7 +42869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>45892</v>
       </c>
@@ -42754,7 +42889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>45934</v>
       </c>
@@ -42774,7 +42909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>45934</v>
       </c>
@@ -42794,7 +42929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>45934</v>
       </c>
@@ -42814,7 +42949,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>45948</v>
       </c>
@@ -42834,7 +42969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>45948</v>
       </c>
@@ -42854,7 +42989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>45948</v>
       </c>
@@ -42874,7 +43009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>46011</v>
       </c>
@@ -42894,7 +43029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>46011</v>
       </c>
@@ -42914,7 +43049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>46011</v>
       </c>
@@ -42934,7 +43069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>46025</v>
       </c>
@@ -42954,7 +43089,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>46025</v>
       </c>
@@ -42974,7 +43109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>46025</v>
       </c>
@@ -43004,17 +43139,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529B4E8-9DBC-4B7B-BADA-BB362A760F5D}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -43026,7 +43163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44835</v>
       </c>
@@ -43040,7 +43177,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44842</v>
       </c>
@@ -43054,7 +43191,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44849</v>
       </c>
@@ -43068,7 +43205,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44856</v>
       </c>
@@ -43082,7 +43219,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44863</v>
       </c>
@@ -43096,7 +43233,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44870</v>
       </c>
@@ -43110,7 +43247,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44877</v>
       </c>
@@ -43124,7 +43261,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44884</v>
       </c>
@@ -43138,7 +43275,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44891</v>
       </c>
@@ -43152,7 +43289,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44898</v>
       </c>
@@ -43166,7 +43303,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44905</v>
       </c>
@@ -43180,7 +43317,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44912</v>
       </c>
@@ -43194,7 +43331,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44919</v>
       </c>
@@ -43208,7 +43345,7 @@
         <v>3.28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44926</v>
       </c>
@@ -43222,7 +43359,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44933</v>
       </c>
@@ -43236,7 +43373,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44940</v>
       </c>
@@ -43250,7 +43387,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44947</v>
       </c>
@@ -43264,7 +43401,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44954</v>
       </c>
@@ -43278,7 +43415,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44961</v>
       </c>
@@ -43292,7 +43429,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44968</v>
       </c>
@@ -43306,7 +43443,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44975</v>
       </c>
@@ -43320,7 +43457,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44982</v>
       </c>
@@ -43334,7 +43471,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44989</v>
       </c>
@@ -43348,7 +43485,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44996</v>
       </c>
@@ -43362,7 +43499,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>45003</v>
       </c>
@@ -43376,7 +43513,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45010</v>
       </c>
@@ -43390,7 +43527,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45017</v>
       </c>
@@ -43404,7 +43541,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45024</v>
       </c>
@@ -43418,7 +43555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45031</v>
       </c>
@@ -43432,7 +43569,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45038</v>
       </c>
@@ -43446,7 +43583,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45045</v>
       </c>
@@ -43460,7 +43597,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45052</v>
       </c>
@@ -43474,7 +43611,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45059</v>
       </c>
@@ -43488,7 +43625,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45066</v>
       </c>
@@ -43502,7 +43639,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45073</v>
       </c>
@@ -43516,7 +43653,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45080</v>
       </c>
@@ -43530,7 +43667,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45087</v>
       </c>
@@ -43544,7 +43681,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45094</v>
       </c>
@@ -43558,7 +43695,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45101</v>
       </c>
@@ -43572,7 +43709,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45108</v>
       </c>
@@ -43586,7 +43723,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45115</v>
       </c>
@@ -43600,7 +43737,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45122</v>
       </c>
@@ -43614,7 +43751,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45129</v>
       </c>
@@ -43628,7 +43765,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45136</v>
       </c>
@@ -43642,7 +43779,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45143</v>
       </c>
@@ -43656,7 +43793,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>45150</v>
       </c>
@@ -43670,7 +43807,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>45157</v>
       </c>
@@ -43684,7 +43821,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>45164</v>
       </c>
@@ -43698,7 +43835,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45171</v>
       </c>
@@ -43712,7 +43849,7 @@
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>45178</v>
       </c>
@@ -43726,7 +43863,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>45185</v>
       </c>
@@ -43740,7 +43877,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>45192</v>
       </c>
@@ -43754,7 +43891,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>45199</v>
       </c>
@@ -43768,7 +43905,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>45206</v>
       </c>
@@ -43782,7 +43919,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>45213</v>
       </c>
@@ -43796,7 +43933,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>45220</v>
       </c>
@@ -43810,7 +43947,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>45227</v>
       </c>
@@ -43824,7 +43961,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>45234</v>
       </c>
@@ -43838,7 +43975,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>45241</v>
       </c>
@@ -43852,7 +43989,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>45248</v>
       </c>
@@ -43866,7 +44003,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>45255</v>
       </c>
@@ -43880,7 +44017,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>45262</v>
       </c>
@@ -43894,7 +44031,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>45269</v>
       </c>
@@ -43908,7 +44045,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>45276</v>
       </c>
@@ -43922,7 +44059,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>45283</v>
       </c>
@@ -43936,7 +44073,7 @@
         <v>2.81</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>45290</v>
       </c>
@@ -43950,7 +44087,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>45297</v>
       </c>
@@ -43964,7 +44101,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>45304</v>
       </c>
@@ -43978,7 +44115,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>45311</v>
       </c>
@@ -43992,7 +44129,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>45318</v>
       </c>
@@ -44006,7 +44143,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>45325</v>
       </c>
@@ -44020,7 +44157,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>45332</v>
       </c>
@@ -44034,7 +44171,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>45339</v>
       </c>
@@ -44048,7 +44185,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>45346</v>
       </c>
@@ -44062,7 +44199,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>45353</v>
       </c>
@@ -44076,7 +44213,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>45360</v>
       </c>
@@ -44090,7 +44227,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>45367</v>
       </c>
@@ -44104,7 +44241,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>45374</v>
       </c>
@@ -44118,7 +44255,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>45381</v>
       </c>
@@ -44132,7 +44269,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>45388</v>
       </c>
@@ -44146,7 +44283,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>45395</v>
       </c>
@@ -44160,7 +44297,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>45402</v>
       </c>
@@ -44174,7 +44311,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>45409</v>
       </c>
@@ -44188,7 +44325,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>45416</v>
       </c>
@@ -44202,7 +44339,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>45423</v>
       </c>
@@ -44216,7 +44353,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>45430</v>
       </c>
@@ -44230,7 +44367,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>45437</v>
       </c>
@@ -44244,7 +44381,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>45444</v>
       </c>
@@ -44258,7 +44395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>45451</v>
       </c>
@@ -44272,7 +44409,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>45458</v>
       </c>
@@ -44286,7 +44423,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>45465</v>
       </c>
@@ -44300,7 +44437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>45472</v>
       </c>
@@ -44314,7 +44451,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>45479</v>
       </c>
@@ -44328,7 +44465,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>45486</v>
       </c>
@@ -44342,7 +44479,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>45493</v>
       </c>
@@ -44356,7 +44493,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>45500</v>
       </c>
@@ -44370,7 +44507,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>45507</v>
       </c>
@@ -44384,7 +44521,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>45514</v>
       </c>
@@ -44398,7 +44535,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>45521</v>
       </c>
@@ -44412,7 +44549,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>45528</v>
       </c>
@@ -44426,7 +44563,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>45535</v>
       </c>
@@ -44440,7 +44577,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>45542</v>
       </c>
@@ -44454,7 +44591,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>45549</v>
       </c>
@@ -44468,7 +44605,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>45556</v>
       </c>
@@ -44482,7 +44619,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>45563</v>
       </c>
@@ -44496,7 +44633,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>45570</v>
       </c>
@@ -44510,7 +44647,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>45577</v>
       </c>
@@ -44524,7 +44661,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>45584</v>
       </c>
@@ -44538,7 +44675,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>45591</v>
       </c>
@@ -44552,7 +44689,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>45598</v>
       </c>
@@ -44566,7 +44703,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>45605</v>
       </c>
@@ -44580,7 +44717,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45612</v>
       </c>
@@ -44594,7 +44731,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>45619</v>
       </c>
@@ -44608,7 +44745,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>45626</v>
       </c>
@@ -44622,7 +44759,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>45633</v>
       </c>
@@ -44636,7 +44773,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>45640</v>
       </c>
@@ -44650,7 +44787,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>45647</v>
       </c>
@@ -44664,7 +44801,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>45654</v>
       </c>
@@ -44678,7 +44815,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>45661</v>
       </c>
@@ -44692,7 +44829,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>45668</v>
       </c>
@@ -44706,7 +44843,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>45675</v>
       </c>
@@ -44720,7 +44857,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>45682</v>
       </c>
@@ -44734,7 +44871,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>45689</v>
       </c>
@@ -44748,7 +44885,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>45696</v>
       </c>
@@ -44762,7 +44899,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>45703</v>
       </c>
@@ -44776,7 +44913,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>45710</v>
       </c>
@@ -44790,7 +44927,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>45717</v>
       </c>
@@ -44804,7 +44941,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>45724</v>
       </c>
@@ -44818,7 +44955,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>45731</v>
       </c>
@@ -44832,7 +44969,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>45738</v>
       </c>
@@ -44846,7 +44983,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>45745</v>
       </c>
@@ -44860,7 +44997,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>45752</v>
       </c>
@@ -44874,7 +45011,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>45759</v>
       </c>
@@ -44888,7 +45025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>45766</v>
       </c>
@@ -44902,7 +45039,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>45773</v>
       </c>
@@ -44916,7 +45053,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>45780</v>
       </c>
@@ -44930,7 +45067,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>45787</v>
       </c>
@@ -44944,7 +45081,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>45794</v>
       </c>
@@ -44958,7 +45095,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>45801</v>
       </c>
@@ -44972,7 +45109,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>45808</v>
       </c>
@@ -44986,7 +45123,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>45815</v>
       </c>
@@ -45000,7 +45137,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>45822</v>
       </c>
@@ -45014,7 +45151,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>45829</v>
       </c>
@@ -45028,7 +45165,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>45836</v>
       </c>
@@ -45042,7 +45179,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>45843</v>
       </c>
@@ -45056,7 +45193,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>45850</v>
       </c>
@@ -45070,7 +45207,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>45857</v>
       </c>
@@ -45084,7 +45221,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>45864</v>
       </c>
@@ -45098,7 +45235,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>45871</v>
       </c>
@@ -45112,7 +45249,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>45878</v>
       </c>
@@ -45126,7 +45263,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>45885</v>
       </c>
@@ -45140,7 +45277,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>45892</v>
       </c>
@@ -45154,7 +45291,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>45899</v>
       </c>
@@ -45168,7 +45305,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>45906</v>
       </c>
@@ -45182,7 +45319,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>45913</v>
       </c>
@@ -45196,7 +45333,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>45920</v>
       </c>
@@ -45210,7 +45347,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>45927</v>
       </c>
@@ -45224,7 +45361,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>45934</v>
       </c>
@@ -45238,7 +45375,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>45941</v>
       </c>
@@ -45252,7 +45389,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>45948</v>
       </c>
@@ -45266,7 +45403,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>45955</v>
       </c>
@@ -45280,7 +45417,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>45962</v>
       </c>
@@ -45294,7 +45431,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>45969</v>
       </c>
@@ -45308,7 +45445,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>45976</v>
       </c>
@@ -45322,7 +45459,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>45983</v>
       </c>
@@ -45336,7 +45473,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>45990</v>
       </c>
@@ -45350,7 +45487,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>45997</v>
       </c>
@@ -45364,7 +45501,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>46004</v>
       </c>
@@ -45378,7 +45515,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>46011</v>
       </c>
@@ -45392,7 +45529,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>46018</v>
       </c>
@@ -45406,7 +45543,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>46025</v>
       </c>

--- a/01-examining-trends.xlsx
+++ b/01-examining-trends.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdc-my.sharepoint.com/personal/kwn5_cdc_gov/Documents/Trainings/2026_EIS-Training/ggplot2-tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="8_{1AB57379-B7DA-4E6D-8CFB-4B6B1C42F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A377C72-2834-431A-BA4B-365680F883EA}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="8_{1AB57379-B7DA-4E6D-8CFB-4B6B1C42F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C4672D-2476-409F-976F-1E2DD8972B73}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4703C2F0-33FD-4ED4-97DB-3C2B0EE210EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4703C2F0-33FD-4ED4-97DB-3C2B0EE210EA}"/>
   </bookViews>
   <sheets>
     <sheet name="1-data" sheetId="1" r:id="rId1"/>
@@ -157,9 +157,9 @@
   <colors>
     <mruColors>
       <color rgb="FF652B5A"/>
+      <color rgb="FFF06F19"/>
       <color rgb="FF847056"/>
       <color rgb="FF890664"/>
-      <color rgb="FFF06F19"/>
       <color rgb="FF0A58D6"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FF9B85B9"/>
@@ -21561,7 +21561,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>COVID-19</a:t>
+              <a:t>COVID-19     </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
@@ -21585,7 +21585,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
+              <a:t>      during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
@@ -22813,196 +22813,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D229FB3-64A8-1EE8-24DA-EDDE45360798}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10763250" y="1171575"/>
-          <a:ext cx="3505200" cy="2524125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TIPS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Use text boxes (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Insert &gt; Shape &gt; Text Box</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>) to add chart titles. The chart titles that come with the chart are usually hard to format. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Right-click any axis and select </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Format Axis &gt; Axis Options </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>to customize tick mark intervals and label style. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Labels are easiest to read when they are oriented horizontally (vs. vertically). Reduce the number of tick marks if it is difficult to orient in this way.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="171450" indent="-171450">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>215153</xdr:colOff>
       <xdr:row>63</xdr:row>
@@ -23142,7 +22952,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> or </a:t>
+              <a:t>       or </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
@@ -23150,7 +22960,7 @@
                   <a:srgbClr val="652B5A"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>RSV</a:t>
+              <a:t>RSV  </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" baseline="0">
@@ -23158,7 +22968,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t> during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
+              <a:t>   during the first week of 2026 was 0.9% and 0.5%, respectively.</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0">
               <a:solidFill>
@@ -23282,6 +23092,226 @@
         </xdr:sp>
       </xdr:grpSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>277906</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409083</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C83759-C81A-42F4-9A65-8FD75B9675A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8283388" y="6669741"/>
+          <a:ext cx="131177" cy="108852"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="F06F19"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444942</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1891AD2F-8033-7A6D-FC52-06EBF7D83F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8928847" y="6669741"/>
+          <a:ext cx="131177" cy="108852"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="652B5A"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>310471</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>64028</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2568D85A-FE2E-4B63-A9D5-978BBB535F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8184776" y="12326470"/>
+          <a:ext cx="131177" cy="108852"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="F06F19"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242048</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373225</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>64028</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADCCCF6-E173-4ADE-A08B-7F3CC1A0ADF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8857130" y="12326470"/>
+          <a:ext cx="131177" cy="108852"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="652B5A"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30749,8 +30779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C139FD-3409-420C-A12A-B6DBF658E664}">
   <dimension ref="A1:L514"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:L176"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43139,8 +43169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529B4E8-9DBC-4B7B-BADA-BB362A760F5D}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R82" sqref="R82"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
